--- a/data/LT_data.xlsx
+++ b/data/LT_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtgov-my.sharepoint.com/personal/cba491_mt_gov/Documents/Desktop/Capstone/mt_deq_arms_modulair_colocation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F2AF3A25-2A31-43DC-BF5A-4579F65FB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1934719-C901-40FA-90DE-716D134B836E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F2AF3A25-2A31-43DC-BF5A-4579F65FB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F512BB0-E3EC-4CE9-B7DB-41DA106B61B7}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="2040" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -120,8 +120,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{30296E08-4D3D-4DE5-8465-C0739C243059}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,6 +159,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78146E7B-E25A-409B-BEB4-026DE5E505BC}" name="Table1" displayName="Table1" ref="A1:H1873" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H1873" xr:uid="{78146E7B-E25A-409B-BEB4-026DE5E505BC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DB81F14A-8C0D-45C4-9E54-28A246F2F78C}" name="siteid"/>
+    <tableColumn id="2" xr3:uid="{0B8F3B24-B60A-4959-8035-7A3C0534BC7A}" name="datetime" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6A7AA65C-2998-4A16-B4F7-227334CC52FD}" name="siteid_datetime" dataDxfId="1">
+      <calculatedColumnFormula>A2 &amp; "_" &amp; TEXT(B2, "yyyy-mm-dd HH:MM:SS")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{106D0972-5055-49CE-A00E-8BC0645030E3}" name="lt_thermo"/>
+    <tableColumn id="5" xr3:uid="{F3BE9897-9E41-4C6A-99E3-FC5EFF055E7E}" name="lt_modulair_pm25"/>
+    <tableColumn id="6" xr3:uid="{13964DBF-8310-4568-8F22-A1A80344539C}" name="lt_modulair_rh"/>
+    <tableColumn id="7" xr3:uid="{BA557BCA-A23E-4CF7-A104-ADE893890687}" name="lt_modulair_tempc"/>
+    <tableColumn id="8" xr3:uid="{1138C038-799C-4E69-A18C-B282C48FCE65}" name="lt_purpleair_cf1"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +471,7 @@
   <dimension ref="A1:I1873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52649,5 +52696,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>